--- a/data/trans_orig/COM_RAPIDA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/COM_RAPIDA-Clase-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Establecimientos de comida rápida en País Vasco</t>
+          <t>Establecimientos de comida rápida en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/COM_RAPIDA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/COM_RAPIDA-Clase-trans_orig.xlsx
@@ -733,32 +733,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13543</t>
+          <t>12868</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10718</t>
+          <t>9955</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17087</t>
+          <t>16687</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -768,67 +768,67 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14988</t>
+          <t>14552</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11651</t>
+          <t>11486</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18258</t>
+          <t>18149</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10,3%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>27421</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>23091</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>31696</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>7,98%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>12,51%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>28531</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>24530</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>9,66%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>9,22%</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26229</t>
+          <t>28759</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22218</t>
+          <t>24474</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30871</t>
+          <t>33703</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -881,32 +881,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26137</t>
+          <t>28440</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21997</t>
+          <t>24198</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30324</t>
+          <t>33076</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>52366</t>
+          <t>57200</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>46242</t>
+          <t>51550</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>58137</t>
+          <t>64301</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>18,71%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52912</t>
+          <t>55886</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47666</t>
+          <t>50158</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>58667</t>
+          <t>62087</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>33,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>29,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -994,32 +994,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45891</t>
+          <t>57026</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>40508</t>
+          <t>51547</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>50963</t>
+          <t>63486</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1029,32 +1029,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>98804</t>
+          <t>112912</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>91997</t>
+          <t>105152</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>106130</t>
+          <t>121000</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>35,21%</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56538</t>
+          <t>69985</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51292</t>
+          <t>63778</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61819</t>
+          <t>75889</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>41,78%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>58973</t>
+          <t>76114</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53718</t>
+          <t>69459</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>64614</t>
+          <t>82456</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>43,21%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>46,81%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1142,32 +1142,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>115511</t>
+          <t>146099</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>107903</t>
+          <t>137817</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>123778</t>
+          <t>154943</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>42,52%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>41,93%</t>
+          <t>45,09%</t>
         </is>
       </c>
     </row>
@@ -1185,17 +1185,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1220,17 +1220,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1255,17 +1255,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1302,32 +1302,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6400</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4482</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9051</t>
+          <t>9071</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1337,32 +1337,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10563</t>
+          <t>10785</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8049</t>
+          <t>8678</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13261</t>
+          <t>13962</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1372,32 +1372,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>16963</t>
+          <t>17016</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>13956</t>
+          <t>13977</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>20554</t>
+          <t>20607</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>9,43%</t>
         </is>
       </c>
     </row>
@@ -1415,32 +1415,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14733</t>
+          <t>13903</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11775</t>
+          <t>10967</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17872</t>
+          <t>17128</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1450,32 +1450,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17518</t>
+          <t>16821</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14604</t>
+          <t>13825</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21023</t>
+          <t>20698</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1485,32 +1485,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>32251</t>
+          <t>30724</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>28104</t>
+          <t>26538</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>36817</t>
+          <t>35115</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -1528,32 +1528,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27211</t>
+          <t>30783</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23205</t>
+          <t>26831</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30790</t>
+          <t>35095</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>37,78%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1563,32 +1563,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38967</t>
+          <t>43744</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34661</t>
+          <t>38183</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43302</t>
+          <t>48347</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1598,32 +1598,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>66179</t>
+          <t>74527</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>60702</t>
+          <t>68246</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>72082</t>
+          <t>80874</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>37,02%</t>
         </is>
       </c>
     </row>
@@ -1641,32 +1641,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>34298</t>
+          <t>41965</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29665</t>
+          <t>36976</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>37885</t>
+          <t>45961</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>45,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>39,81%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>45,84%</t>
+          <t>49,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1676,32 +1676,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>43086</t>
+          <t>54234</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>38997</t>
+          <t>49659</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>47559</t>
+          <t>59651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>43,19%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>47,5%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1711,32 +1711,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>77384</t>
+          <t>96200</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>71090</t>
+          <t>89577</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>83720</t>
+          <t>103434</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>44,03%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>47,35%</t>
         </is>
       </c>
     </row>
@@ -1754,17 +1754,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1789,17 +1789,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1824,17 +1824,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1871,32 +1871,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13931</t>
+          <t>11911</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10984</t>
+          <t>9466</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17110</t>
+          <t>15128</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1906,32 +1906,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>4921</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7930</t>
+          <t>6798</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1941,32 +1941,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>19504</t>
+          <t>16832</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>16197</t>
+          <t>14115</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>23591</t>
+          <t>20505</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>9,38%</t>
         </is>
       </c>
     </row>
@@ -1984,32 +1984,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29794</t>
+          <t>27620</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25294</t>
+          <t>23687</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34156</t>
+          <t>32114</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2019,32 +2019,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10152</t>
+          <t>9587</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7541</t>
+          <t>6984</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12879</t>
+          <t>12071</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2054,32 +2054,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>39945</t>
+          <t>37207</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>35269</t>
+          <t>32423</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>45635</t>
+          <t>42436</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>19,42%</t>
         </is>
       </c>
     </row>
@@ -2097,32 +2097,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>61324</t>
+          <t>56486</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>55831</t>
+          <t>51466</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>66914</t>
+          <t>62313</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>39,65%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2132,32 +2132,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23805</t>
+          <t>21680</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>20339</t>
+          <t>18383</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>27332</t>
+          <t>24898</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>37,22%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>29,95%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>40,57%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2167,32 +2167,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>85128</t>
+          <t>78166</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>78582</t>
+          <t>71984</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>91702</t>
+          <t>84299</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>38,57%</t>
         </is>
       </c>
     </row>
@@ -2210,32 +2210,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>59393</t>
+          <t>61161</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>53745</t>
+          <t>55598</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>64914</t>
+          <t>66088</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>39,48%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2245,32 +2245,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24431</t>
+          <t>25186</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21243</t>
+          <t>22109</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>28084</t>
+          <t>28803</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>46,93%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2280,32 +2280,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>83824</t>
+          <t>86347</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>77147</t>
+          <t>79626</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>90308</t>
+          <t>92135</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>39,51%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>42,16%</t>
         </is>
       </c>
     </row>
@@ -2323,17 +2323,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2358,17 +2358,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2393,17 +2393,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2440,32 +2440,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>18295</t>
+          <t>17170</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15319</t>
+          <t>13999</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22081</t>
+          <t>20438</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2475,32 +2475,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16364</t>
+          <t>16148</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12959</t>
+          <t>13055</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>19680</t>
+          <t>19480</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2510,32 +2510,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>34658</t>
+          <t>33318</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>30079</t>
+          <t>28858</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>39172</t>
+          <t>38627</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>10,63%</t>
         </is>
       </c>
     </row>
@@ -2553,32 +2553,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>28710</t>
+          <t>25585</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24772</t>
+          <t>21972</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>33714</t>
+          <t>29432</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2588,32 +2588,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>30957</t>
+          <t>30654</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>26897</t>
+          <t>26413</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>35851</t>
+          <t>35135</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2623,32 +2623,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>59667</t>
+          <t>56240</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>53382</t>
+          <t>50912</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>66017</t>
+          <t>62749</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>17,26%</t>
         </is>
       </c>
     </row>
@@ -2666,32 +2666,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>63361</t>
+          <t>63880</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>57578</t>
+          <t>58706</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>69162</t>
+          <t>70254</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>33,53%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>40,12%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2701,32 +2701,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>62682</t>
+          <t>63661</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>57226</t>
+          <t>57596</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>69001</t>
+          <t>69012</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2736,32 +2736,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>126043</t>
+          <t>127541</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>117650</t>
+          <t>119297</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>134733</t>
+          <t>135331</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>37,23%</t>
         </is>
       </c>
     </row>
@@ -2779,32 +2779,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>65733</t>
+          <t>68458</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>60124</t>
+          <t>62681</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>71432</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>40,56%</t>
+          <t>42,38%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2814,32 +2814,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>72014</t>
+          <t>77931</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>66133</t>
+          <t>72267</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>78074</t>
+          <t>84505</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>41,37%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>36,33%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2849,32 +2849,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>137747</t>
+          <t>146389</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>129005</t>
+          <t>137588</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>145068</t>
+          <t>154707</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>37,85%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>42,56%</t>
         </is>
       </c>
     </row>
@@ -2892,17 +2892,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2927,17 +2927,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2962,17 +2962,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3009,32 +3009,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>9418</t>
+          <t>8043</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7482</t>
+          <t>6070</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>12264</t>
+          <t>10849</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3044,32 +3044,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>14081</t>
+          <t>11699</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>11152</t>
+          <t>9310</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>17376</t>
+          <t>14691</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3079,32 +3079,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>23499</t>
+          <t>19742</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>19763</t>
+          <t>16559</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>27783</t>
+          <t>23426</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>11,63%</t>
         </is>
       </c>
     </row>
@@ -3122,32 +3122,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>14892</t>
+          <t>12642</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>11916</t>
+          <t>10007</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>18748</t>
+          <t>15432</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3157,32 +3157,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>25834</t>
+          <t>22559</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>22120</t>
+          <t>19017</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>30252</t>
+          <t>26294</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3192,32 +3192,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>40726</t>
+          <t>35201</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>35950</t>
+          <t>30957</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>46583</t>
+          <t>39685</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>19,69%</t>
         </is>
       </c>
     </row>
@@ -3235,32 +3235,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>26754</t>
+          <t>26051</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>22943</t>
+          <t>22674</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>30562</t>
+          <t>29837</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>29,25%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3270,32 +3270,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>48288</t>
+          <t>47002</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>43629</t>
+          <t>42406</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>53799</t>
+          <t>51625</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>34,2%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>41,63%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3305,32 +3305,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>75042</t>
+          <t>73053</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>68736</t>
+          <t>66777</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>81338</t>
+          <t>78841</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>39,13%</t>
         </is>
       </c>
     </row>
@@ -3348,32 +3348,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>28025</t>
+          <t>30771</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23974</t>
+          <t>26855</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>31981</t>
+          <t>34315</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>39,7%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>44,27%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3383,32 +3383,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>44877</t>
+          <t>42743</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>40147</t>
+          <t>38321</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>49921</t>
+          <t>47691</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>34,47%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>37,51%</t>
+          <t>38,46%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3418,32 +3418,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>72902</t>
+          <t>73514</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>66764</t>
+          <t>67311</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>79214</t>
+          <t>79167</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>39,29%</t>
         </is>
       </c>
     </row>
@@ -3461,17 +3461,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3496,17 +3496,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3531,17 +3531,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3578,32 +3578,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5963</t>
+          <t>6964</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3613,67 +3613,67 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11200</t>
+          <t>10720</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>8567</t>
+          <t>8428</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>14320</t>
+          <t>13896</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>15344</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>12292</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>19204</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
           <t>7,12%</t>
         </is>
       </c>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>11,91%</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>15219</t>
-        </is>
-      </c>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>12233</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>18662</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="inlineStr">
-        <is>
-          <t>9,09%</t>
-        </is>
-      </c>
-      <c r="V29" s="2" t="inlineStr">
-        <is>
-          <t>7,31%</t>
-        </is>
-      </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,12%</t>
         </is>
       </c>
     </row>
@@ -3691,32 +3691,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5912</t>
+          <t>5858</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4223</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>8081</t>
+          <t>8080</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>20828</t>
+          <t>18648</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>17362</t>
+          <t>15506</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>24640</t>
+          <t>22010</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>26740</t>
+          <t>24506</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>22769</t>
+          <t>20892</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>31303</t>
+          <t>28453</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>16,48%</t>
         </is>
       </c>
     </row>
@@ -3804,32 +3804,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>18180</t>
+          <t>21235</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>15534</t>
+          <t>18274</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>21195</t>
+          <t>24788</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>38,62%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>45,03%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3839,32 +3839,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>42776</t>
+          <t>43350</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>38616</t>
+          <t>38642</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>47819</t>
+          <t>48101</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>35,7%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>39,61%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3874,32 +3874,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>60956</t>
+          <t>64585</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>55526</t>
+          <t>58845</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>66661</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>41,19%</t>
         </is>
       </c>
     </row>
@@ -3917,32 +3917,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>18956</t>
+          <t>19529</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>15834</t>
+          <t>16278</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>21787</t>
+          <t>22865</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>44,62%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3952,32 +3952,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>45474</t>
+          <t>48725</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>40658</t>
+          <t>44278</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>50362</t>
+          <t>53608</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>37,81%</t>
+          <t>40,12%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3987,32 +3987,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>64430</t>
+          <t>68254</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>58704</t>
+          <t>61964</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>70387</t>
+          <t>73849</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>39,52%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>42,76%</t>
         </is>
       </c>
     </row>
@@ -4030,17 +4030,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4065,17 +4065,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4100,17 +4100,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4147,32 +4147,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>65606</t>
+          <t>60846</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>59367</t>
+          <t>54738</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>72391</t>
+          <t>68043</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4182,32 +4182,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>72769</t>
+          <t>68826</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>65923</t>
+          <t>61694</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>80322</t>
+          <t>75714</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4217,32 +4217,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>138375</t>
+          <t>129672</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>128968</t>
+          <t>119804</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>147569</t>
+          <t>139013</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -4260,32 +4260,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>120270</t>
+          <t>114369</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>111939</t>
+          <t>106337</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>129410</t>
+          <t>123603</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4295,32 +4295,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>131424</t>
+          <t>126710</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>122914</t>
+          <t>117969</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>141193</t>
+          <t>135671</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4330,32 +4330,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>251694</t>
+          <t>241078</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>239830</t>
+          <t>228724</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>265593</t>
+          <t>254000</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>16,73%</t>
         </is>
       </c>
     </row>
@@ -4373,32 +4373,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>249742</t>
+          <t>254321</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>239435</t>
+          <t>242371</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>262655</t>
+          <t>267170</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4408,32 +4408,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>262409</t>
+          <t>276463</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>250229</t>
+          <t>264369</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>274073</t>
+          <t>289670</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4443,32 +4443,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>512151</t>
+          <t>530784</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>495596</t>
+          <t>514187</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>527993</t>
+          <t>546776</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>35,22%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>36,01%</t>
         </is>
       </c>
     </row>
@@ -4486,32 +4486,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>262944</t>
+          <t>291871</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>251842</t>
+          <t>279641</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>274122</t>
+          <t>304994</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4521,32 +4521,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>288855</t>
+          <t>324932</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>276353</t>
+          <t>312060</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>300137</t>
+          <t>338381</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>40,77%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>42,46%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4556,32 +4556,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>551799</t>
+          <t>616803</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>535488</t>
+          <t>600196</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>569175</t>
+          <t>633147</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>39,14%</t>
+          <t>41,7%</t>
         </is>
       </c>
     </row>
@@ -4599,17 +4599,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4634,17 +4634,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4669,17 +4669,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
